--- a/config_6.15/act_ty_phb_config.xlsx
+++ b/config_6.15/act_ty_phb_config.xlsx
@@ -71,10 +71,10 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>zqdw_019_fqdr_rank</t>
-  </si>
-  <si>
-    <t>act_052_qfhl</t>
+    <t>fqjkh_020_yxbd_rank</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -83,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_018_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_zqdw_019_fqdr_rank</t>
+    <t>act_019_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_fqjkh_020_yxbd_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -154,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,11 +171,6 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -185,8 +180,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,43 +224,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,19 +261,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,56 +301,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -350,19 +350,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,163 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,15 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -579,6 +590,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,26 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,138 +661,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +823,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,13 +835,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1253,7 +1256,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1288,29 +1291,29 @@
       <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9">
-        <v>1623110400</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1623686399</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="10">
+        <v>1623715200</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1624291199</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1320,16 +1323,16 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
@@ -1337,16 +1340,16 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
